--- a/bokslut2024/balans-rapport-bokio.xlsx
+++ b/bokslut2024/balans-rapport-bokio.xlsx
@@ -875,10 +875,10 @@
         <x:v>364791.82</x:v>
       </x:c>
       <x:c r="D17" s="3">
-        <x:v>-57065.76</x:v>
+        <x:v>-58491.76</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>307726.06</x:v>
+        <x:v>306300.06</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -892,10 +892,10 @@
         <x:v>0.42</x:v>
       </x:c>
       <x:c r="D18" s="5">
-        <x:v>-40647.76</x:v>
+        <x:v>-0.76</x:v>
       </x:c>
       <x:c r="E18" s="5">
-        <x:v>-40647.34</x:v>
+        <x:v>-0.34</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -926,10 +926,10 @@
         <x:v>58595.8</x:v>
       </x:c>
       <x:c r="D20" s="5">
-        <x:v>95148.6</x:v>
+        <x:v>46149.36</x:v>
       </x:c>
       <x:c r="E20" s="5">
-        <x:v>153744.4</x:v>
+        <x:v>104745.16</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -943,10 +943,10 @@
         <x:v>101566.6</x:v>
       </x:c>
       <x:c r="D21" s="5">
-        <x:v>-101566.6</x:v>
+        <x:v>-94640.36</x:v>
       </x:c>
       <x:c r="E21" s="5">
-        <x:v>-0</x:v>
+        <x:v>6926.24</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1039,10 +1039,10 @@
         <x:v>21771</x:v>
       </x:c>
       <x:c r="D27" s="3">
-        <x:v>-21771</x:v>
+        <x:v>-20345</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>0</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
@@ -1056,10 +1056,10 @@
         <x:v>-0</x:v>
       </x:c>
       <x:c r="D28" s="5">
-        <x:v>0</x:v>
+        <x:v>-0</x:v>
       </x:c>
       <x:c r="E28" s="5">
-        <x:v>0</x:v>
+        <x:v>-0</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1107,10 +1107,10 @@
         <x:v>21771</x:v>
       </x:c>
       <x:c r="D31" s="5">
-        <x:v>-21771</x:v>
+        <x:v>-20345</x:v>
       </x:c>
       <x:c r="E31" s="5">
-        <x:v>-0</x:v>
+        <x:v>1426</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1124,10 +1124,10 @@
         <x:v>-0</x:v>
       </x:c>
       <x:c r="D32" s="5">
-        <x:v>-0</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E32" s="5">
-        <x:v>-0</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
